--- a/Meteorological Tanjung Priok/tanjung priok 2021-2024.xlsx
+++ b/Meteorological Tanjung Priok/tanjung priok 2021-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Meteorological Tanjung Priok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921BCCF7-F1FA-420D-9925-E5A7BCD3A030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A32158-BCC2-4728-9AAA-593B279D72EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2024" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="1531">
   <si>
     <t>Tanggal</t>
   </si>
@@ -4434,6 +4434,198 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-6.10782</t>
+  </si>
+  <si>
+    <t>106.88054</t>
+  </si>
+  <si>
+    <t>-6.10783</t>
+  </si>
+  <si>
+    <t>106.88055</t>
+  </si>
+  <si>
+    <t>-6.10784</t>
+  </si>
+  <si>
+    <t>106.88056</t>
+  </si>
+  <si>
+    <t>-6.10785</t>
+  </si>
+  <si>
+    <t>106.88057</t>
+  </si>
+  <si>
+    <t>-6.10786</t>
+  </si>
+  <si>
+    <t>106.88058</t>
+  </si>
+  <si>
+    <t>-6.10787</t>
+  </si>
+  <si>
+    <t>106.88059</t>
+  </si>
+  <si>
+    <t>-6.10788</t>
+  </si>
+  <si>
+    <t>106.88060</t>
+  </si>
+  <si>
+    <t>-6.10789</t>
+  </si>
+  <si>
+    <t>106.88061</t>
+  </si>
+  <si>
+    <t>-6.10790</t>
+  </si>
+  <si>
+    <t>106.88062</t>
+  </si>
+  <si>
+    <t>-6.10791</t>
+  </si>
+  <si>
+    <t>106.88063</t>
+  </si>
+  <si>
+    <t>-6.10792</t>
+  </si>
+  <si>
+    <t>106.88064</t>
+  </si>
+  <si>
+    <t>-6.10793</t>
+  </si>
+  <si>
+    <t>106.88065</t>
+  </si>
+  <si>
+    <t>-6.10794</t>
+  </si>
+  <si>
+    <t>106.88066</t>
+  </si>
+  <si>
+    <t>-6.10795</t>
+  </si>
+  <si>
+    <t>106.88067</t>
+  </si>
+  <si>
+    <t>-6.10796</t>
+  </si>
+  <si>
+    <t>106.88068</t>
+  </si>
+  <si>
+    <t>-6.10797</t>
+  </si>
+  <si>
+    <t>106.88069</t>
+  </si>
+  <si>
+    <t>-6.10798</t>
+  </si>
+  <si>
+    <t>106.88070</t>
+  </si>
+  <si>
+    <t>-6.10799</t>
+  </si>
+  <si>
+    <t>106.88071</t>
+  </si>
+  <si>
+    <t>-6.10800</t>
+  </si>
+  <si>
+    <t>106.88072</t>
+  </si>
+  <si>
+    <t>-6.10801</t>
+  </si>
+  <si>
+    <t>106.88073</t>
+  </si>
+  <si>
+    <t>-6.10802</t>
+  </si>
+  <si>
+    <t>106.88074</t>
+  </si>
+  <si>
+    <t>11-12-2024</t>
+  </si>
+  <si>
+    <t>12-12-2024</t>
+  </si>
+  <si>
+    <t>13-12-2024</t>
+  </si>
+  <si>
+    <t>14-12-2024</t>
+  </si>
+  <si>
+    <t>15-12-2024</t>
+  </si>
+  <si>
+    <t>16-12-2024</t>
+  </si>
+  <si>
+    <t>17-12-2024</t>
+  </si>
+  <si>
+    <t>18-12-2024</t>
+  </si>
+  <si>
+    <t>19-12-2024</t>
+  </si>
+  <si>
+    <t>20-12-2024</t>
+  </si>
+  <si>
+    <t>21-12-2024</t>
+  </si>
+  <si>
+    <t>22-12-2024</t>
+  </si>
+  <si>
+    <t>23-12-2024</t>
+  </si>
+  <si>
+    <t>24-12-2024</t>
+  </si>
+  <si>
+    <t>25-12-2024</t>
+  </si>
+  <si>
+    <t>26-12-2024</t>
+  </si>
+  <si>
+    <t>27-12-2024</t>
+  </si>
+  <si>
+    <t>28-12-2024</t>
+  </si>
+  <si>
+    <t>29-12-2024</t>
+  </si>
+  <si>
+    <t>30-12-2024</t>
+  </si>
+  <si>
+    <t>31-12-2024</t>
   </si>
 </sst>
 </file>
@@ -4465,7 +4657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4503,11 +4695,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4521,6 +4739,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4826,10 +5056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1441"/>
+  <dimension ref="A1:J1462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A1445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1456" sqref="G1456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50459,25 +50690,25 @@
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1441" s="2" t="s">
+      <c r="A1441" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="B1441" s="2">
+      <c r="B1441" s="6">
         <v>28.1</v>
       </c>
-      <c r="C1441" s="2">
+      <c r="C1441" s="6">
         <v>81</v>
       </c>
-      <c r="D1441" s="2">
+      <c r="D1441" s="6">
         <v>26.4</v>
       </c>
-      <c r="E1441" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1441" s="2">
-        <v>3</v>
-      </c>
-      <c r="G1441" s="5" t="s">
+      <c r="E1441" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1441" s="6">
+        <v>3</v>
+      </c>
+      <c r="G1441" s="7" t="s">
         <v>1465</v>
       </c>
       <c r="H1441" s="3" t="s">
@@ -50488,6 +50719,678 @@
       </c>
       <c r="J1441" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1442" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1442" s="9">
+        <v>29.6</v>
+      </c>
+      <c r="C1442" s="9">
+        <v>79</v>
+      </c>
+      <c r="D1442" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1442" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F1442" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1442" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1442" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I1442" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J1442" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1443" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1443" s="9">
+        <v>29.8</v>
+      </c>
+      <c r="C1443" s="9">
+        <v>71</v>
+      </c>
+      <c r="D1443" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1443" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1443" s="9">
+        <v>4</v>
+      </c>
+      <c r="G1443" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1443" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I1443" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J1443" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1444" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1444" s="9">
+        <v>30.1</v>
+      </c>
+      <c r="C1444" s="9">
+        <v>72</v>
+      </c>
+      <c r="D1444" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1444" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="F1444" s="9">
+        <v>4</v>
+      </c>
+      <c r="G1444" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1444" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1444" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J1444" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1445" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1445" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="C1445" s="9">
+        <v>76</v>
+      </c>
+      <c r="D1445" s="9">
+        <v>8888</v>
+      </c>
+      <c r="E1445" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="F1445" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1445" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1445" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I1445" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J1445" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1446" s="8" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1446" s="9">
+        <v>28.1</v>
+      </c>
+      <c r="C1446" s="9">
+        <v>80</v>
+      </c>
+      <c r="D1446" s="9">
+        <v>5</v>
+      </c>
+      <c r="E1446" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F1446" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1446" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1446" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I1446" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J1446" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1447" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1447" s="9">
+        <v>28.3</v>
+      </c>
+      <c r="C1447" s="9">
+        <v>83</v>
+      </c>
+      <c r="D1447" s="9">
+        <v>20</v>
+      </c>
+      <c r="E1447" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="F1447" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1447" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1447" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I1447" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J1447" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1448" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1448" s="9">
+        <v>28.1</v>
+      </c>
+      <c r="C1448" s="9">
+        <v>85</v>
+      </c>
+      <c r="D1448" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1448" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="F1448" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1448" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1448" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I1448" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J1448" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1449" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1449" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="C1449" s="9">
+        <v>79</v>
+      </c>
+      <c r="D1449" s="9">
+        <v>8888</v>
+      </c>
+      <c r="E1449" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="F1449" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1449" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1449" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I1449" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J1449" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1450" s="8" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1450" s="9">
+        <v>28.2</v>
+      </c>
+      <c r="C1450" s="9">
+        <v>83</v>
+      </c>
+      <c r="D1450" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1450" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1450" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1450" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1450" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I1450" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J1450" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1451" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1451" s="9">
+        <v>28.4</v>
+      </c>
+      <c r="C1451" s="9">
+        <v>83</v>
+      </c>
+      <c r="D1451" s="9">
+        <v>9</v>
+      </c>
+      <c r="E1451" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="F1451" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1451" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1451" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I1451" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J1451" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1452" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1452" s="9">
+        <v>28.4</v>
+      </c>
+      <c r="C1452" s="9">
+        <v>85</v>
+      </c>
+      <c r="D1452" s="9">
+        <v>6</v>
+      </c>
+      <c r="E1452" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="F1452" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1452" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1452" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I1452" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J1452" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1453" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1453" s="9">
+        <v>28.2</v>
+      </c>
+      <c r="C1453" s="9">
+        <v>85</v>
+      </c>
+      <c r="D1453" s="9">
+        <v>11</v>
+      </c>
+      <c r="E1453" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F1453" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1453" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1453" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I1453" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J1453" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1454" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1454" s="9">
+        <v>27.1</v>
+      </c>
+      <c r="C1454" s="9">
+        <v>92</v>
+      </c>
+      <c r="D1454" s="9">
+        <v>22</v>
+      </c>
+      <c r="E1454" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="F1454" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1454" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1454" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I1454" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J1454" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1455" s="8" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1455" s="9">
+        <v>27.5</v>
+      </c>
+      <c r="C1455" s="9">
+        <v>87</v>
+      </c>
+      <c r="D1455" s="9">
+        <v>23</v>
+      </c>
+      <c r="E1455" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F1455" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1455" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1455" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I1455" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J1455" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1456" s="8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1456" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="C1456" s="9">
+        <v>89</v>
+      </c>
+      <c r="D1456" s="9">
+        <v>4</v>
+      </c>
+      <c r="E1456" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F1456" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1456" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1456" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I1456" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J1456" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1457" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1457" s="9">
+        <v>28.9</v>
+      </c>
+      <c r="C1457" s="9">
+        <v>80</v>
+      </c>
+      <c r="D1457" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1457" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F1457" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1457" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1457" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I1457" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J1457" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1458" s="8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1458" s="9">
+        <v>29.2</v>
+      </c>
+      <c r="C1458" s="9">
+        <v>81</v>
+      </c>
+      <c r="D1458" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1458" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F1458" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1458" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1458" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I1458" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J1458" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1459" s="8" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1459" s="9">
+        <v>29.6</v>
+      </c>
+      <c r="C1459" s="9">
+        <v>79</v>
+      </c>
+      <c r="D1459" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1459" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="F1459" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1459" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H1459" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I1459" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J1459" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1460" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1460" s="9">
+        <v>29.3</v>
+      </c>
+      <c r="C1460" s="9">
+        <v>81</v>
+      </c>
+      <c r="D1460" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1460" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="F1460" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1460" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1460" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I1460" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J1460" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1461" s="8" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1461" s="9">
+        <v>28.2</v>
+      </c>
+      <c r="C1461" s="9">
+        <v>79</v>
+      </c>
+      <c r="D1461" s="9">
+        <v>1</v>
+      </c>
+      <c r="E1461" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="F1461" s="9">
+        <v>4</v>
+      </c>
+      <c r="G1461" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1461" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I1461" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J1461" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1462" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1462" s="9">
+        <v>28.3</v>
+      </c>
+      <c r="C1462" s="9">
+        <v>82</v>
+      </c>
+      <c r="D1462" s="9">
+        <v>2</v>
+      </c>
+      <c r="E1462" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F1462" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1462" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1462" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I1462" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J1462" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
